--- a/pkg/excels/return/В-01-00003.xlsx
+++ b/pkg/excels/return/В-01-00003.xlsx
@@ -317,7 +317,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <color/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1083,16 +1083,10 @@
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="36">
-        <v>5</v>
-      </c>
-      <c r="I5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5"/>
@@ -1229,7 +1223,7 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup r:id="rId1" orientation="portrait" paperSize="9" verticalDpi="0"/>
